--- a/output/comp_ratios_fish_vs_scats_trace_vs_major.xlsx
+++ b/output/comp_ratios_fish_vs_scats_trace_vs_major.xlsx
@@ -35,7 +35,8 @@
     <t xml:space="preserve">forage fish</t>
   </si>
   <si>
-    <t xml:space="preserve">A.gazella scats</t>
+    <t xml:space="preserve">Antarctic fur
+ seal scats</t>
   </si>
 </sst>
 </file>
